--- a/cypress/restBooker.xlsx
+++ b/cypress/restBooker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lerato\Documents\GitHub\RestfulBooker\cypress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1796E75-A02F-488C-8460-1B3F10245548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2CF7A3-0570-46D1-A786-DAFEE03DC0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="600" windowWidth="10656" windowHeight="11484" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="restBooker" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
   <si>
     <t>Booking room</t>
   </si>
@@ -50,13 +50,145 @@
   </si>
   <si>
     <t>Message</t>
+  </si>
+  <si>
+    <t>Lerato</t>
+  </si>
+  <si>
+    <t>Mokgatle</t>
+  </si>
+  <si>
+    <t>leratoM@gmail.com</t>
+  </si>
+  <si>
+    <t>08212345671</t>
+  </si>
+  <si>
+    <t>Successful booking</t>
+  </si>
+  <si>
+    <t>Crow</t>
+  </si>
+  <si>
+    <t>mcrow@gmail.com</t>
+  </si>
+  <si>
+    <t>08312345681</t>
+  </si>
+  <si>
+    <t>Booking without filling in name</t>
+  </si>
+  <si>
+    <t>Thabo</t>
+  </si>
+  <si>
+    <t>tbester@gmail.com</t>
+  </si>
+  <si>
+    <t>07312345671</t>
+  </si>
+  <si>
+    <t>Booking without filling in last name</t>
+  </si>
+  <si>
+    <t>Thato</t>
+  </si>
+  <si>
+    <t>Mokoena</t>
+  </si>
+  <si>
+    <t>ThatoM</t>
+  </si>
+  <si>
+    <t>07512345622</t>
+  </si>
+  <si>
+    <t>Booking with an invalid email</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Gibson</t>
+  </si>
+  <si>
+    <t>JordanG@gmail.com</t>
+  </si>
+  <si>
+    <t>06515671</t>
+  </si>
+  <si>
+    <t>Booking with an invalid phone number</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>UI Test</t>
+  </si>
+  <si>
+    <t>Booking</t>
+  </si>
+  <si>
+    <t>I'd like to inquire about the availability of a room</t>
+  </si>
+  <si>
+    <t>Successful message sent</t>
+  </si>
+  <si>
+    <t>OliviaT@gmail.com</t>
+  </si>
+  <si>
+    <t>5555555555</t>
+  </si>
+  <si>
+    <t>Chech-in and Check-out</t>
+  </si>
+  <si>
+    <t>Hello, I would like to inquire about the possibility of early check-in and late check-out. I have an early morning arrival and a late afternoon departure and I was wondering if you can accommodate my schedule. Is there an additional fee for this service?</t>
+  </si>
+  <si>
+    <t>Send message without filling in name</t>
+  </si>
+  <si>
+    <t>Daniel Martin</t>
+  </si>
+  <si>
+    <t>daniel.martin@example.com</t>
+  </si>
+  <si>
+    <t>Loyalty programs and rewards</t>
+  </si>
+  <si>
+    <t>Good afternoon, I am a frequent traveler and I would like to know if you have any loyalty programs or rewards for regular guests. How can I enroll in the program and what are the benefits?</t>
+  </si>
+  <si>
+    <t>Send message with an invalid email</t>
+  </si>
+  <si>
+    <t>Christopher</t>
+  </si>
+  <si>
+    <t>christopher.thomas@example.com</t>
+  </si>
+  <si>
+    <t>(555) 123-7890</t>
+  </si>
+  <si>
+    <t>Room with a view</t>
+  </si>
+  <si>
+    <t>Dear reservations team, I am interested in booking a room with a view of the city skyline. Can you please confirm if this is possible and if there is an additional fee for this room type?</t>
+  </si>
+  <si>
+    <t>Send mesaage with an invalid phone number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,8 +330,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -383,6 +546,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
@@ -502,7 +671,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -545,17 +714,30 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -589,6 +771,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -909,84 +1092,277 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" customWidth="1"/>
-    <col min="4" max="4" width="20.88671875" customWidth="1"/>
-    <col min="5" max="5" width="23.77734375" customWidth="1"/>
+    <col min="1" max="2" width="19.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" customWidth="1"/>
+    <col min="6" max="6" width="45.109375" customWidth="1"/>
+    <col min="7" max="7" width="38.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G9" s="4" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A4:F4"/>
+  <mergeCells count="4">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A10:A13"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{FD7F1B09-6D9E-43DD-ABBE-E43F4B985AD5}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{A32EDCF0-C676-433C-83E8-C175E7ECA09C}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{A31AB001-8BD4-4773-B617-A2D99205A871}"/>
+    <hyperlink ref="D7" r:id="rId4" xr:uid="{F27AB195-4B06-4E8C-AD9C-CE0397B9AE2F}"/>
+    <hyperlink ref="C10" r:id="rId5" xr:uid="{346ACA12-8484-4F0F-B7A1-64F7612434BE}"/>
+    <hyperlink ref="C12" r:id="rId6" xr:uid="{3C5DA797-F4F7-4F1A-9AAE-E3822074819D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>